--- a/jpcore-r4/feature/swg5-Medicationrequest_Injectionの用語定義にて投与経路が重複/ValueSet-jp-observation-socialhistory-code-vs.xlsx
+++ b/jpcore-r4/feature/swg5-Medicationrequest_Injectionの用語定義にて投与経路が重複/ValueSet-jp-observation-socialhistory-code-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T08:35:42+00:00</t>
+    <t>2022-09-01T11:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
